--- a/文档/其他文档/Others/Sports/F1 Score.xlsx
+++ b/文档/其他文档/Others/Sports/F1 Score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>VET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>SIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,9 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1017,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>22</v>
